--- a/assets/excel/Department_Template.xlsx
+++ b/assets/excel/Department_Template.xlsx
@@ -49,7 +49,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,16 +59,15 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,14 +107,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,21 +400,22 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -427,36 +426,36 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
